--- a/Result/ROR 2 - ORACLE -UNICORN.xlsx
+++ b/Result/ROR 2 - ORACLE -UNICORN.xlsx
@@ -18,20 +18,17 @@
     <sheet name="Throughtput 25" sheetId="9" r:id="rId9"/>
     <sheet name="Throughtput 30" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
   <si>
     <t>ip-0AD076EF</t>
-  </si>
-  <si>
-    <t>27.6/sec</t>
-  </si>
-  <si>
-    <t>2103.12</t>
   </si>
   <si>
     <t>Url</t>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>KB/Sec</t>
-  </si>
-  <si>
-    <t>26.1/sec</t>
-  </si>
-  <si>
-    <t>1993.40</t>
   </si>
   <si>
     <t>Casos</t>
@@ -124,13 +115,7 @@
     <t>ROR 2 - ORACLE - UNICORN</t>
   </si>
   <si>
-    <t>5.0/sec</t>
-  </si>
-  <si>
     <t>8.0/sec</t>
-  </si>
-  <si>
-    <t>612.19</t>
   </si>
   <si>
     <t>10.0/sec</t>
@@ -160,35 +145,53 @@
     <t>30.0 /sec</t>
   </si>
   <si>
-    <t>15.0/sec</t>
+    <t>28.3/sec</t>
   </si>
   <si>
-    <t>20.0/sec</t>
+    <t>1729.17</t>
   </si>
   <si>
-    <t>24.5/sec</t>
+    <t>24.9/sec</t>
   </si>
   <si>
-    <t>1871.86</t>
+    <t>1519.25</t>
   </si>
   <si>
-    <t>380.40</t>
+    <t>4.9/sec</t>
   </si>
   <si>
-    <t>1142.36</t>
+    <t>297.62</t>
   </si>
   <si>
-    <t>28.1/sec</t>
+    <t>488.21</t>
   </si>
   <si>
-    <t>2145.09</t>
+    <t>609.30</t>
+  </si>
+  <si>
+    <t>14.9/sec</t>
+  </si>
+  <si>
+    <t>910.60</t>
+  </si>
+  <si>
+    <t>19.7/sec</t>
+  </si>
+  <si>
+    <t>1201.08</t>
+  </si>
+  <si>
+    <t>24.7/sec</t>
+  </si>
+  <si>
+    <t>1508.94</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -577,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,6 +649,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +692,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>286</c:v>
+                  <c:v>225.80167910447699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +719,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>258.39600000000002</c:v>
+                  <c:v>193.76533333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +746,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>214.93199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +773,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>260.47866666666602</c:v>
+                  <c:v>326.45499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +800,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387</c:v>
+                  <c:v>335.57299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +827,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>403.373666666666</c:v>
+                  <c:v>393.09300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,30 +854,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>636.51400000000001</c:v>
+                  <c:v>622.65166666666596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95988352"/>
-        <c:axId val="96070656"/>
+        <c:axId val="102904960"/>
+        <c:axId val="102906496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95988352"/>
+        <c:axId val="102904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96070656"/>
+        <c:crossAx val="102906496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96070656"/>
+        <c:axId val="102906496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +885,140 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95988352"/>
+        <c:crossAx val="102904960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resumen!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg gen time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resumen!$H$7:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9/sec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.3/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resumen!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>225.80167910447699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.76533333333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214.93199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393.09300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>622.65166666666596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="66394752"/>
+        <c:axId val="66703744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66394752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66703744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66703744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66394752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,16 +1041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -921,412 +1069,130 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7172" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1257300"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1" descr="http://github.com/geisbruch/jMeterPerfTest/raw/master/Result/ROR%202%20-%20ORACLE%20-%20UNICORN/SimpleConcurrent_GRAPH.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1333500"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="http://github.com/geisbruch/jMeterPerfTest/raw/master/Result/ROR%202%20-%20ORACLE%20-%20UNICORN/GaussianConcurrent_GRAPH.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="1238250"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1476375"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5122" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="1104900"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6146" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="638175"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8196" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1666875"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9218" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1162050"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10242" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="885825"/>
-          <a:ext cx="9086850" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Resumen"/>
+      <sheetName val="Simple Concurrent"/>
+      <sheetName val="Gaussian Concurrent"/>
+      <sheetName val="Throughtput 5"/>
+      <sheetName val="Throughtput 8"/>
+      <sheetName val="Throughtput 10"/>
+      <sheetName val="Throughtput 15"/>
+      <sheetName val="Throughtput 20"/>
+      <sheetName val="Throughtput 25"/>
+      <sheetName val="Throughtput 30"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Avg gen time (ms)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>197.93199999999999</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>5.0/sec</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>182.18199999999999</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>8.0/sec</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>190.831666666666</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>10.0/sec</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>230.636</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>14.9/sec</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>303.19866666666599</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>19.6/sec</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>350.56166666666599</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>24.7/sec</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>536.04999999999995</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>28.9/sec</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,7 +1483,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1632,10 +1498,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
@@ -1651,36 +1517,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="45.75" thickBot="1">
       <c r="A4" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="26">
         <f>'Simple Concurrent'!B2</f>
@@ -1688,19 +1554,19 @@
       </c>
       <c r="C5" s="26">
         <f>'Simple Concurrent'!C2</f>
-        <v>709</v>
+        <v>674.27666666666596</v>
       </c>
       <c r="D5" s="26">
         <f>'Simple Concurrent'!D2</f>
-        <v>129</v>
+        <v>211.54218520716401</v>
       </c>
       <c r="E5" s="26">
         <f>'Simple Concurrent'!E2</f>
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F5" s="26">
         <f>'Simple Concurrent'!F2</f>
-        <v>3641</v>
+        <v>3876</v>
       </c>
       <c r="G5" s="26">
         <f>'Simple Concurrent'!G2</f>
@@ -1708,15 +1574,15 @@
       </c>
       <c r="H5" s="26" t="str">
         <f>'Simple Concurrent'!H2</f>
-        <v>27.6/sec</v>
+        <v>28.3/sec</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="32">
         <f>'Gaussian Concurrent'!B2</f>
@@ -1724,19 +1590,19 @@
       </c>
       <c r="C6" s="32">
         <f>'Gaussian Concurrent'!C2</f>
-        <v>433.86900000000003</v>
+        <v>454.327333333333</v>
       </c>
       <c r="D6" s="32">
         <f>'Gaussian Concurrent'!D2</f>
-        <v>93</v>
+        <v>429.04207973836498</v>
       </c>
       <c r="E6" s="32">
         <f>'Gaussian Concurrent'!E2</f>
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F6" s="32">
         <f>'Gaussian Concurrent'!F2</f>
-        <v>929</v>
+        <v>8404</v>
       </c>
       <c r="G6" s="32">
         <f>'Gaussian Concurrent'!G2</f>
@@ -1744,35 +1610,35 @@
       </c>
       <c r="H6" s="32" t="str">
         <f>'Gaussian Concurrent'!H2</f>
-        <v>26.1/sec</v>
+        <v>24.9/sec</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10">
         <f>'Throughtput 5'!B2</f>
-        <v>3840</v>
+        <v>5360</v>
       </c>
       <c r="C7" s="10">
         <f>'Throughtput 5'!C2</f>
-        <v>286</v>
+        <v>225.80167910447699</v>
       </c>
       <c r="D7" s="10">
         <f>'Throughtput 5'!D2</f>
-        <v>84</v>
+        <v>72.314686201795695</v>
       </c>
       <c r="E7" s="10">
         <f>'Throughtput 5'!E2</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" s="10">
         <f>'Throughtput 5'!F2</f>
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="G7" s="10">
         <f>'Throughtput 5'!G2</f>
@@ -1780,15 +1646,15 @@
       </c>
       <c r="H7" s="10" t="str">
         <f>'Throughtput 5'!H2</f>
-        <v>5.0/sec</v>
+        <v>4.9/sec</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14">
         <f>'Throughtput 8'!B2</f>
@@ -1796,11 +1662,11 @@
       </c>
       <c r="C8" s="14">
         <f>'Throughtput 8'!C2</f>
-        <v>258.39600000000002</v>
+        <v>193.76533333333299</v>
       </c>
       <c r="D8" s="14">
         <f>'Throughtput 8'!D2</f>
-        <v>76</v>
+        <v>51.247109819860903</v>
       </c>
       <c r="E8" s="14">
         <f>'Throughtput 8'!E2</f>
@@ -1808,7 +1674,7 @@
       </c>
       <c r="F8" s="14">
         <f>'Throughtput 8'!F2</f>
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="G8" s="14">
         <f>'Throughtput 8'!G2</f>
@@ -1819,12 +1685,12 @@
         <v>8.0/sec</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11">
         <f>'Throughtput 10'!B2</f>
@@ -1832,19 +1698,19 @@
       </c>
       <c r="C9" s="11">
         <f>'Throughtput 10'!C2</f>
-        <v>233</v>
+        <v>214.93199999999999</v>
       </c>
       <c r="D9" s="11">
         <f>'Throughtput 10'!D2</f>
-        <v>93</v>
+        <v>81.907236408024403</v>
       </c>
       <c r="E9" s="11">
         <f>'Throughtput 10'!E2</f>
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F9" s="11">
         <f>'Throughtput 10'!F2</f>
-        <v>2025</v>
+        <v>2379</v>
       </c>
       <c r="G9" s="11">
         <f>'Throughtput 10'!G2</f>
@@ -1855,12 +1721,12 @@
         <v>10.0/sec</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="14">
         <f>'Throughtput 15'!B2</f>
@@ -1868,19 +1734,19 @@
       </c>
       <c r="C10" s="14">
         <f>'Throughtput 15'!C2</f>
-        <v>260.47866666666602</v>
+        <v>326.45499999999998</v>
       </c>
       <c r="D10" s="14">
         <f>'Throughtput 15'!D2</f>
-        <v>68.984637503980295</v>
+        <v>112.081214490505</v>
       </c>
       <c r="E10" s="14">
         <f>'Throughtput 15'!E2</f>
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F10" s="14">
         <f>'Throughtput 15'!F2</f>
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="G10" s="14">
         <f>'Throughtput 15'!G2</f>
@@ -1888,15 +1754,15 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>'Throughtput 15'!H2</f>
-        <v>15.0/sec</v>
+        <v>14.9/sec</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="11">
         <f>'Throughtput 20'!B2</f>
@@ -1904,19 +1770,19 @@
       </c>
       <c r="C11" s="11">
         <f>'Throughtput 20'!C2</f>
-        <v>387</v>
+        <v>335.57299999999998</v>
       </c>
       <c r="D11" s="11">
         <f>'Throughtput 20'!D2</f>
-        <v>135.132727837814</v>
+        <v>101.362205338084</v>
       </c>
       <c r="E11" s="11">
         <f>'Throughtput 20'!E2</f>
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F11" s="11">
         <f>'Throughtput 20'!F2</f>
-        <v>1055</v>
+        <v>3225</v>
       </c>
       <c r="G11" s="11">
         <f>'Throughtput 20'!G2</f>
@@ -1924,15 +1790,15 @@
       </c>
       <c r="H11" s="11" t="str">
         <f>'Throughtput 20'!H2</f>
-        <v>20.0/sec</v>
+        <v>19.7/sec</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="14">
         <f>'Throughtput 25'!B2</f>
@@ -1940,19 +1806,19 @@
       </c>
       <c r="C12" s="14">
         <f>'Throughtput 25'!C2</f>
-        <v>403.373666666666</v>
+        <v>393.09300000000002</v>
       </c>
       <c r="D12" s="14">
         <f>'Throughtput 25'!D2</f>
-        <v>133.96191264642599</v>
+        <v>90.160314723274894</v>
       </c>
       <c r="E12" s="14">
         <f>'Throughtput 25'!E2</f>
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F12" s="14">
         <f>'Throughtput 25'!F2</f>
-        <v>2249</v>
+        <v>918</v>
       </c>
       <c r="G12" s="14">
         <f>'Throughtput 25'!G2</f>
@@ -1960,15 +1826,15 @@
       </c>
       <c r="H12" s="14" t="str">
         <f>'Throughtput 25'!H2</f>
-        <v>24.5/sec</v>
+        <v>24.7/sec</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12">
         <f>'Throughtput 30'!B2</f>
@@ -1976,19 +1842,19 @@
       </c>
       <c r="C13" s="12">
         <f>'Throughtput 30'!C2</f>
-        <v>636.51400000000001</v>
+        <v>622.65166666666596</v>
       </c>
       <c r="D13" s="12">
         <f>'Throughtput 30'!D2</f>
-        <v>122.503430444484</v>
+        <v>126.755106395057</v>
       </c>
       <c r="E13" s="12">
         <f>'Throughtput 30'!E2</f>
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F13" s="12">
         <f>'Throughtput 30'!F2</f>
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="G13" s="12">
         <f>'Throughtput 30'!G2</f>
@@ -1996,10 +1862,10 @@
       </c>
       <c r="H13" s="12" t="str">
         <f>'Throughtput 30'!H2</f>
-        <v>28.1/sec</v>
+        <v>28.3/sec</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2024,31 +1890,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -2059,30 +1925,33 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>636.51400000000001</v>
+        <v>622.65166666666596</v>
       </c>
       <c r="D2" s="2">
-        <v>122.503430444484</v>
+        <v>126.755106395057</v>
       </c>
       <c r="E2" s="1">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F2" s="1">
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>51</v>
+      <c r="H2" s="36" t="s">
+        <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
+      <c r="I2" s="1">
+        <v>1729.06</v>
       </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="G7" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2091,7 +1960,7 @@
   <dimension ref="A1:I3000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2101,31 +1970,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1">
@@ -2136,25 +2005,25 @@
         <v>3000</v>
       </c>
       <c r="C2" s="23">
-        <v>709</v>
+        <v>674.27666666666596</v>
       </c>
       <c r="D2" s="23">
-        <v>129</v>
+        <v>211.54218520716401</v>
       </c>
       <c r="E2" s="22">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F2" s="22">
-        <v>3641</v>
+        <v>3876</v>
       </c>
       <c r="G2" s="22">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -29140,7 +29009,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29149,7 +29017,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29159,31 +29027,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1">
@@ -29194,30 +29062,29 @@
         <v>3000</v>
       </c>
       <c r="C2" s="23">
-        <v>433.86900000000003</v>
+        <v>454.327333333333</v>
       </c>
       <c r="D2" s="23">
-        <v>93</v>
+        <v>429.04207973836498</v>
       </c>
       <c r="E2" s="22">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F2" s="22">
-        <v>929</v>
+        <v>8404</v>
       </c>
       <c r="G2" s="22">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29226,7 +29093,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29236,31 +29103,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -29268,33 +29135,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3840</v>
+        <v>5360</v>
       </c>
       <c r="C2" s="2">
-        <v>286</v>
+        <v>225.80167910447699</v>
       </c>
       <c r="D2" s="2">
-        <v>84</v>
+        <v>72.314686201795695</v>
       </c>
       <c r="E2" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29303,7 +29169,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29313,31 +29179,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1">
@@ -29348,30 +29214,29 @@
         <v>3000</v>
       </c>
       <c r="C2" s="23">
-        <v>258.39600000000002</v>
+        <v>193.76533333333299</v>
       </c>
       <c r="D2" s="23">
-        <v>76</v>
+        <v>51.247109819860903</v>
       </c>
       <c r="E2" s="22">
         <v>121</v>
       </c>
       <c r="F2" s="22">
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="G2" s="22">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29380,7 +29245,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29391,31 +29256,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1">
@@ -29426,30 +29291,29 @@
         <v>3000</v>
       </c>
       <c r="C2" s="23">
-        <v>233</v>
+        <v>214.93199999999999</v>
       </c>
       <c r="D2" s="23">
-        <v>93</v>
+        <v>81.907236408024403</v>
       </c>
       <c r="E2" s="22">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F2" s="22">
-        <v>2025</v>
+        <v>2379</v>
       </c>
       <c r="G2" s="22">
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
-      <c r="I2" s="24">
-        <v>764.24</v>
+      <c r="I2" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29458,7 +29322,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29468,31 +29332,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -29503,25 +29367,25 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>260.47866666666602</v>
+        <v>326.45499999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>68.984637503980295</v>
+        <v>112.081214490505</v>
       </c>
       <c r="E2" s="1">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -29530,7 +29394,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29539,7 +29402,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29552,31 +29415,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -29587,30 +29450,29 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>387</v>
+        <v>335.57299999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>135.132727837814</v>
+        <v>101.362205338084</v>
       </c>
       <c r="E2" s="1">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1">
-        <v>1055</v>
+        <v>3225</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
-      <c r="I2" s="1">
-        <v>1523.09</v>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29619,7 +29481,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29629,31 +29491,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
@@ -29664,29 +29526,28 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2">
-        <v>403.373666666666</v>
+        <v>393.09300000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>133.96191264642599</v>
+        <v>90.160314723274894</v>
       </c>
       <c r="E2" s="1">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1">
-        <v>2249</v>
+        <v>918</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>